--- a/INTLINE/data/136/BOI/Other primary income and secondary income and capital account.xlsx
+++ b/INTLINE/data/136/BOI/Other primary income and secondary income and capital account.xlsx
@@ -418,7 +418,7 @@
       <c r="B2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-4196.339</t>
+            <t xml:space="preserve">-4186.546</t>
           </r>
         </is>
       </c>
@@ -453,7 +453,7 @@
       <c r="G2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1205.711</t>
+            <t xml:space="preserve">1206.172</t>
           </r>
         </is>
       </c>
@@ -474,7 +474,7 @@
       <c r="J2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-5402.05</t>
+            <t xml:space="preserve">-5392.719</t>
           </r>
         </is>
       </c>
@@ -495,7 +495,7 @@
       <c r="M2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7484.955</t>
+            <t xml:space="preserve">7494.286</t>
           </r>
         </is>
       </c>
@@ -551,7 +551,7 @@
       <c r="U2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1604.508</t>
+            <t xml:space="preserve">1613.839</t>
           </r>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="X2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11681.294</t>
+            <t xml:space="preserve">11680.833</t>
           </r>
         </is>
       </c>
@@ -607,7 +607,7 @@
       <c r="AC2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4674.736</t>
+            <t xml:space="preserve">4674.275</t>
           </r>
         </is>
       </c>
@@ -658,7 +658,7 @@
       <c r="B3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-4708.467</t>
+            <t xml:space="preserve">-4700.965</t>
           </r>
         </is>
       </c>
@@ -693,7 +693,7 @@
       <c r="G3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-1296.836</t>
+            <t xml:space="preserve">-1295.987</t>
           </r>
         </is>
       </c>
@@ -714,7 +714,7 @@
       <c r="J3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-3411.631</t>
+            <t xml:space="preserve">-3404.978</t>
           </r>
         </is>
       </c>
@@ -735,7 +735,7 @@
       <c r="M3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4094.273</t>
+            <t xml:space="preserve">4100.925</t>
           </r>
         </is>
       </c>
@@ -791,7 +791,7 @@
       <c r="U3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1226.563</t>
+            <t xml:space="preserve">1233.215</t>
           </r>
         </is>
       </c>
@@ -812,7 +812,7 @@
       <c r="X3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8802.74</t>
+            <t xml:space="preserve">8801.89</t>
           </r>
         </is>
       </c>
@@ -847,7 +847,7 @@
       <c r="AC3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4164.546</t>
+            <t xml:space="preserve">4163.697</t>
           </r>
         </is>
       </c>
@@ -898,7 +898,7 @@
       <c r="B4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-3361.553</t>
+            <t xml:space="preserve">-3354.219</t>
           </r>
         </is>
       </c>
@@ -933,7 +933,7 @@
       <c r="G4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-917.608</t>
+            <t xml:space="preserve">-918.096</t>
           </r>
         </is>
       </c>
@@ -954,7 +954,7 @@
       <c r="J4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-2443.945</t>
+            <t xml:space="preserve">-2436.123</t>
           </r>
         </is>
       </c>
@@ -975,7 +975,7 @@
       <c r="M4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4994.901</t>
+            <t xml:space="preserve">5002.722</t>
           </r>
         </is>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="U4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1820.523</t>
+            <t xml:space="preserve">1828.345</t>
           </r>
         </is>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="X4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8356.454</t>
+            <t xml:space="preserve">8356.941</t>
           </r>
         </is>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="AC4" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4091.986</t>
+            <t xml:space="preserve">4092.473</t>
           </r>
         </is>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="B5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-7187.728</t>
+            <t xml:space="preserve">-7179.863</t>
           </r>
         </is>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="G5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-1117.749</t>
+            <t xml:space="preserve">-1117.798</t>
           </r>
         </is>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="J5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">-6069.979</t>
+            <t xml:space="preserve">-6062.065</t>
           </r>
         </is>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="M5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3704.11</t>
+            <t xml:space="preserve">3712.024</t>
           </r>
         </is>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="U5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">951.683</t>
+            <t xml:space="preserve">959.597</t>
           </r>
         </is>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="X5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10891.838</t>
+            <t xml:space="preserve">10891.887</t>
           </r>
         </is>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="AC5" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3870.175</t>
+            <t xml:space="preserve">3870.224</t>
           </r>
         </is>
       </c>
